--- a/Monopol/output_nojail.xlsx
+++ b/Monopol/output_nojail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03f8e3d5d6b92e54/Documentos/monopol_jail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Modelowanie\Monopol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A1A875-AE92-4EFF-B66A-6A552A906D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C66305-878C-47F1-B434-65B4806FB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{42693203-C6F8-487C-8C74-E0956B0D7A7F}"/>
   </bookViews>
@@ -52,22 +52,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Column1</t>
   </si>
   <si>
     <t>Column2</t>
   </si>
+  <si>
+    <t>Column3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -94,13 +104,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -281,129 +305,129 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output_1m!$B$2:$B$41</c:f>
+              <c:f>output_1m!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>25300</c:v>
+                  <c:v>2.53E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25001</c:v>
+                  <c:v>2.5000999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24927</c:v>
+                  <c:v>2.4927000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24875</c:v>
+                  <c:v>2.4875000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25016</c:v>
+                  <c:v>2.5016E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24862</c:v>
+                  <c:v>2.4861999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25041</c:v>
+                  <c:v>2.5041000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24867</c:v>
+                  <c:v>2.4867E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24892</c:v>
+                  <c:v>2.4892000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24824</c:v>
+                  <c:v>2.4823999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25216</c:v>
+                  <c:v>2.5215999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24898</c:v>
+                  <c:v>2.4898E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25304</c:v>
+                  <c:v>2.5304E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24889</c:v>
+                  <c:v>2.4889000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25049</c:v>
+                  <c:v>2.5048999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25070</c:v>
+                  <c:v>2.5069999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24734</c:v>
+                  <c:v>2.4733999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24949</c:v>
+                  <c:v>2.4948999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25120</c:v>
+                  <c:v>2.512E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25032</c:v>
+                  <c:v>2.5031999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24871</c:v>
+                  <c:v>2.4871000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25054</c:v>
+                  <c:v>2.5054E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25280</c:v>
+                  <c:v>2.528E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24951</c:v>
+                  <c:v>2.4951000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25013</c:v>
+                  <c:v>2.5013000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24996</c:v>
+                  <c:v>2.4996000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24943</c:v>
+                  <c:v>2.4943E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25005</c:v>
+                  <c:v>2.5004999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>24952</c:v>
+                  <c:v>2.4951999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25026</c:v>
+                  <c:v>2.5026E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25038</c:v>
+                  <c:v>2.5038000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25075</c:v>
+                  <c:v>2.5075E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24918</c:v>
+                  <c:v>2.4917999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24983</c:v>
+                  <c:v>2.4983000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>24691</c:v>
+                  <c:v>2.4691000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25042</c:v>
+                  <c:v>2.5041999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24837</c:v>
+                  <c:v>2.4837000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25270</c:v>
+                  <c:v>2.5270000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25124</c:v>
+                  <c:v>2.5124E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25065</c:v>
+                  <c:v>2.5065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +689,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6586827819702699E-2"/>
+          <c:y val="9.9369369369369381E-2"/>
+          <c:w val="0.94672081043249212"/>
+          <c:h val="0.81919439124163529"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -826,129 +860,129 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>output!$B$2:$B$41</c:f>
+              <c:f>output!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,16 +2255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2262,16 +2296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2301,10 +2335,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{E61557F5-1BA0-4D61-A3E6-776029E44DC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2312,32 +2347,41 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{9EC2DA4E-E8F0-4A30-B8A7-3D5E25A56DB5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3">
-    <queryTableFields count="2">
+  <queryTableRefresh nextId="4" unboundColumnsRight="1">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0359747E-9724-4A5B-A6B2-8DD04DE90760}" name="output_1m" displayName="output_1m" ref="A1:B41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{0359747E-9724-4A5B-A6B2-8DD04DE90760}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0359747E-9724-4A5B-A6B2-8DD04DE90760}" name="output_1m" displayName="output_1m" ref="A1:C42" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C41" xr:uid="{0359747E-9724-4A5B-A6B2-8DD04DE90760}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FD6CE261-06D1-43B3-8F13-F1C174B7DCFB}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{789BD926-8555-4062-B17D-7BC284AD3320}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{C9EBB97F-9377-4DAC-8570-BAEDE3F897F9}" uniqueName="3" name="Column3" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>output_1m[[#This Row],[Column2]]/1000000</calculatedColumnFormula>
+      <totalsRowFormula>SUM(output_1m[Column3])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1E31440-A5C3-48B9-8F87-207977DF5D1E}" name="output" displayName="output" ref="A1:B41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{D1E31440-A5C3-48B9-8F87-207977DF5D1E}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1E31440-A5C3-48B9-8F87-207977DF5D1E}" name="output" displayName="output" ref="A1:C42" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C41" xr:uid="{D1E31440-A5C3-48B9-8F87-207977DF5D1E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A19C2CB3-5AB6-4CA2-97DA-80C29A7A32C8}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{09402778-9604-4B42-ADD6-89F4ACEB219C}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{B1F10644-6734-4E55-8A65-4CD6EA958E68}" uniqueName="3" name="Column3" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>output[[#This Row],[Column2]]/100</calculatedColumnFormula>
+      <totalsRowFormula>SUM(output[Column3])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2660,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BEDA7B-B16B-4A2D-B023-EE7DCE672000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2671,335 +2715,505 @@
     <col min="1" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>25300</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>25001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5000999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>24927</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4927000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>24875</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4875000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>25016</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5016E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>24862</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4861999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>25041</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5041000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>24867</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4867E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>24892</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4892000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>24824</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4823999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>25216</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5215999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>24898</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4898E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>25304</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5304E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>24889</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4889000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>25049</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5048999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>25070</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5069999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>24734</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4733999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>24949</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4948999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>25120</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.512E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>25032</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5031999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>24871</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4871000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>25054</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5054E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>25280</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.528E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>24951</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4951000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>25013</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5013000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>24996</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4996000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>24943</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4943E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>25005</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5004999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>24952</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4951999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>25026</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5026E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>25038</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5038000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>25075</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5075E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>24918</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4917999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>24983</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4983000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>24691</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4691000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>25042</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5041999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>24837</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.4837000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>25270</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>25124</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5124E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>25065</v>
       </c>
+      <c r="C41">
+        <f>output_1m[[#This Row],[Column2]]/1000000</f>
+        <v>2.5065E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <f>SUM(output_1m[Column3])</f>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -3010,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91CB949-8BD6-4416-82EB-3B181C528DA1}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3021,335 +3235,505 @@
     <col min="1" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
+      <c r="C41">
+        <f>output[[#This Row],[Column2]]/100</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <f>SUM(output[Column3])</f>
+        <v>1.0000000000000004</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
